--- a/wi-uservice.xlsx
+++ b/wi-uservice.xlsx
@@ -1,12 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21817"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3d55\AC\Temp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{874C68DE-422A-4F70-BA20-059913A4CE02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{ED6E7396-E823-4E53-976F-3D222F41763B}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6D01B787-FD58-48FA-B675-BDF9D387659F}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Models" sheetId="1" r:id="rId3"/>
+    <sheet name="Models" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -64,7 +84,7 @@
     <t>combination-ensemble-som</t>
   </si>
   <si>
-    <t>{"params":[{"name":"model_id","type":"string","example":"test_combination_ensemble_som_01"},{"name":"n_estimators","type":"integer","example":3},{"name":"random_state","type":"integer","example":1},{"name":"size_of_estimator","type":"integer","example":1}],"train":[{"name":"model_id","type":"string","example":"test_combination_ensemble_som_01"},{"name":"learning_decay_rate","type":"integer","example":1},{"name":"neighborhood","type":"enum","example":"bubble"},{"name":"sigma","type":"integer","example":1},{"name":"sigma_decay_rate","type":"integer","example":1},{"name":"subset_size","type":"integer","example":1},{"name":"sup_batch_size","type":"integer","example":1},{"name":"sup_num_iters","type":"integer","example":1},{"name":"unsup_batch_size","type":"integer","example":1},{"name":"unsup_num_iters","type":"integer","example":1}]}</t>
+    <t>{"params":[{"name":"model_id","type":"string","example":"test_combination_ensemble_som_01"},{"name":"n_estimators","type":"integer","example":3},{"name":"random_state","type":"integer","example":1},{"name":"size_of_estimator","type":"integer","example":1}],"train":[{"name":"learning_decay_rate","type":"integer","example":1},{"name":"neighborhood","type":"enum","example":"bubble"},{"name":"sigma","type":"integer","example":1},{"name":"sigma_decay_rate","type":"integer","example":1},{"name":"subset_size","type":"integer","example":1},{"name":"sup_batch_size","type":"integer","example":1},{"name":"sup_num_iters","type":"integer","example":1},{"name":"unsup_batch_size","type":"integer","example":1},{"name":"unsup_num_iters","type":"integer","example":1}]}</t>
   </si>
   <si>
     <t>decision_tree_classifier</t>
@@ -79,7 +99,7 @@
     <t>decision_tree</t>
   </si>
   <si>
-    <t>{"params":[{"name":"model_id","type":"string","example":"test_decision_tree_classifier_01"},{"name":"min_samples_split","type":"integer","example":3},{"name":"min_impurity_decrease","type":"integer","example":1},{"name":"criterion","type":"enum","example":"entropy"}]}</t>
+    <t>{"params":[{"name":"model_id","type":"string","example":"test_decision_tree_classifier_01"},{"name":"min_samples_split","type":"integer","example":3},{"name":"min_impurity_decrease","type":"number","example":0.01},{"name":"criterion","type":"enum","example":"entropy"}]}</t>
   </si>
   <si>
     <t>decision_tree_regression</t>
@@ -109,7 +129,7 @@
     <t>distribution-ensemble-som</t>
   </si>
   <si>
-    <t>{"params":[{"name":"model_id","type":"string","example":"test_distribution_ensemble_som_01"},{"name":"n_estimators","type":"integer","example":3},{"name":"random_state","type":"integer","example":1},{"name":"size_of_estimator","type":"integer","example":1}],"train":[{"name":"model_id","type":"string","example":"test_combination_ensemble_som_01"},{"name":"learning_decay_rate","type":"integer","example":1},{"name":"learning_rate","type":"integer","example":1},{"name":"neighborhood","type":"enum","example":"bubble"},{"name":"sigma","type":"integer","example":1},{"name":"sigma_decay_rate","type":"integer","example":1},{"name":"subset_size","type":"integer","example":1},{"name":"sup_batch_size","type":"integer","example":1},{"name":"sup_num_iters","type":"integer","example":1},{"name":"unsup_batch_size","type":"integer","example":1},{"name":"unsup_num_iters","type":"integer","example":1}]}</t>
+    <t>{"params":[{"name":"model_id","type":"string","example":"test_distribution_ensemble_som_01"},{"name":"n_estimators","type":"integer","example":3},{"name":"random_state","type":"integer","example":1},{"name":"size_of_estimator","type":"integer","example":1}],"train":[{"name":"learning_decay_rate","type":"integer","example":1},{"name":"learning_rate","type":"integer","example":1},{"name":"neighborhood","type":"enum","example":"bubble"},{"name":"sigma","type":"integer","example":1},{"name":"sigma_decay_rate","type":"integer","example":1},{"name":"subset_size","type":"integer","example":1},{"name":"sup_batch_size","type":"integer","example":1},{"name":"sup_num_iters","type":"integer","example":1},{"name":"unsup_batch_size","type":"integer","example":1},{"name":"unsup_num_iters","type":"integer","example":1}]}</t>
   </si>
   <si>
     <t>huber_regression</t>
@@ -259,7 +279,7 @@
     <t>supervise-som</t>
   </si>
   <si>
-    <t>{"params":[{"name":"model_id","type":"string","example":"test_supervise_som_01"},{"name":"n_cols","type":"integer","example":3},{"name":"n_rows","type":"integer","example":1},{"name":"random_state","type":"integer","example":1}],"train":[{"name":"model_id","type":"string","example":"test_combination_ensemble_som_01"},{"name":"learning_decay_rate","type":"integer","example":1},{"name":"learning_rate","type":"integer","example":1},{"name":"neighborhood","type":"enum","example":"bubble"},{"name":"weights_init","type":"enum","example":"random"},{"name":"sigma","type":"integer","example":1},{"name":"sigma_decay_rate","type":"integer","example":1},{"name":"sup_batch_size","type":"integer","example":1},{"name":"sup_num_iters","type":"integer","example":1},{"name":"unsup_batch_size","type":"integer","example":1},{"name":"unsup_num_iters","type":"integer","example":1}]}</t>
+    <t>{"params":[{"name":"model_id","type":"string","example":"test_supervise_som_01"},{"name":"n_cols","type":"integer","example":3},{"name":"n_rows","type":"integer","example":1},{"name":"random_state","type":"integer","example":1}],"train":[{"name":"learning_decay_rate","type":"integer","example":1},{"name":"learning_rate","type":"integer","example":1},{"name":"neighborhood","type":"enum","example":"bubble"},{"name":"weights_init","type":"enum","example":"random"},{"name":"sigma","type":"integer","example":1},{"name":"sigma_decay_rate","type":"integer","example":1},{"name":"sup_batch_size","type":"integer","example":1},{"name":"sup_num_iters","type":"integer","example":1},{"name":"unsup_batch_size","type":"integer","example":1},{"name":"unsup_num_iters","type":"integer","example":1}]}</t>
   </si>
   <si>
     <t>svm_regression</t>
@@ -307,775 +327,987 @@
     <t>unsupervise-som</t>
   </si>
   <si>
-    <t>{"params":[{"name":"model_id","type":"string","example":"test_unsupervise_som_01"},{"name":"n_cols","type":"integer","example":3},{"name":"n_rows","type":"integer","example":1},{"name":"random_state","type":"integer","example":1}],"train":[{"name":"model_id","type":"string","example":"test_combination_ensemble_som_01"},{"name":"learning_decay_rate","type":"integer","example":1},{"name":"learning_rate","type":"integer","example":1},{"name":"neighborhood","type":"enum","example":"bubble"},{"name":"weights_init","type":"enum","example":"random"},{"name":"sigma","type":"integer","example":1},{"name":"sigma_decay_rate","type":"integer","example":1},{"name":"sup_batch_size","type":"integer","example":1},{"name":"num_clusters","type":"integer","example":1}]}</t>
+    <t>{"params":[{"name":"model_id","type":"string","example":"test_unsupervise_som_01"},{"name":"n_cols","type":"integer","example":3},{"name":"n_rows","type":"integer","example":1},{"name":"random_state","type":"integer","example":1}],"train":[{"name":"learning_decay_rate","type":"integer","example":1},{"name":"learning_rate","type":"integer","example":1},{"name":"neighborhood","type":"enum","example":"bubble"},{"name":"weights_init","type":"enum","example":"random"},{"name":"sigma","type":"integer","example":1},{"name":"sigma_decay_rate","type":"integer","example":1},{"name":"sup_batch_size","type":"integer","example":1},{"name":"num_clusters","type":"integer","example":1}]}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96499BA4-A139-4795-AB87-E1A1310CB161}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.71"/>
-    <col customWidth="1" min="3" max="3" width="24.0"/>
-    <col customWidth="1" min="4" max="4" width="19.43"/>
-    <col customWidth="1" min="6" max="6" width="44.29"/>
-    <col customWidth="1" min="8" max="8" width="24.29"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
-        <v>5002.0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2">
+        <v>5002</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1">
-        <v>5003.0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3">
+        <v>5003</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1">
-        <v>5004.0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4">
+        <v>5004</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1">
-        <v>5005.0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5">
+        <v>5005</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="1">
-        <v>5006.0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6">
+        <v>5006</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="1">
-        <v>5007.0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7">
+        <v>5007</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="1">
-        <v>5008.0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B8">
+        <v>5008</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="1">
-        <v>5009.0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B9">
+        <v>5009</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="1">
-        <v>5010.0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B10">
+        <v>5010</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="1">
-        <v>5011.0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="B11">
+        <v>5011</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="1" t="b">
+      <c r="H11" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="1">
-        <v>5012.0</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B12">
+        <v>5012</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="1" t="b">
+      <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="1">
-        <v>5013.0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B13">
+        <v>5013</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="1">
-        <v>5014.0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="B14">
+        <v>5014</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="1">
-        <v>5015.0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B15">
+        <v>5015</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="1">
-        <v>5016.0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="B16">
+        <v>5016</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
         <v>81</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="1">
-        <v>5017.0</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="B17">
+        <v>5017</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
         <v>87</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="1">
-        <v>5019.0</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="B18">
+        <v>5019</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="1">
-        <v>5018.0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="B19">
+        <v>5018</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
         <v>97</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E19">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(E2))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E19">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(E2))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="D4"/>
-    <hyperlink r:id="rId4" ref="D5"/>
-    <hyperlink r:id="rId5" ref="D6"/>
-    <hyperlink r:id="rId6" ref="D7"/>
-    <hyperlink r:id="rId7" ref="D8"/>
-    <hyperlink r:id="rId8" ref="D9"/>
-    <hyperlink r:id="rId9" ref="D10"/>
-    <hyperlink r:id="rId10" ref="D11"/>
-    <hyperlink r:id="rId11" ref="D12"/>
-    <hyperlink r:id="rId12" ref="D13"/>
-    <hyperlink r:id="rId13" ref="D14"/>
-    <hyperlink r:id="rId14" ref="D15"/>
-    <hyperlink r:id="rId15" ref="D16"/>
-    <hyperlink r:id="rId16" ref="D17"/>
-    <hyperlink r:id="rId17" ref="D18"/>
-    <hyperlink r:id="rId18" ref="D19"/>
-  </hyperlinks>
-  <drawing r:id="rId19"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>